--- a/crosswalks/templates/classifier-crosswalk-sssom-template.xlsx
+++ b/crosswalks/templates/classifier-crosswalk-sssom-template.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ecosystem-typology\crosswalks\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DC6733-1FC1-4F0B-90FC-82F93B1EA477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0990EFB-7B57-40B6-88F3-E25A8505C84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="2565" windowWidth="36795" windowHeight="14295" activeTab="1" xr2:uid="{00E2F0C7-36F4-48CD-AB7C-87DDD7B41E94}"/>
+    <workbookView xWindow="0" yWindow="3660" windowWidth="38310" windowHeight="14295" activeTab="2" xr2:uid="{00E2F0C7-36F4-48CD-AB7C-87DDD7B41E94}"/>
   </bookViews>
   <sheets>
-    <sheet name="Example" sheetId="1" r:id="rId1"/>
-    <sheet name="Template" sheetId="2" r:id="rId2"/>
+    <sheet name="Template" sheetId="2" r:id="rId1"/>
+    <sheet name="Template-header" sheetId="7" r:id="rId2"/>
+    <sheet name="Example" sheetId="1" r:id="rId3"/>
+    <sheet name="Example-header" sheetId="6" r:id="rId4"/>
+    <sheet name="predicate_id" sheetId="3" r:id="rId5"/>
+    <sheet name="status" sheetId="4" r:id="rId6"/>
+    <sheet name="justification" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -112,7 +117,7 @@
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Free text - unless you wish to define a set of codes or levels? </t>
+    Free text - unless the project wishes to define a set of codes or levels? </t>
       </text>
     </comment>
     <comment ref="K1" authorId="7" shapeId="0" xr:uid="{A5D2FF29-DF7B-4417-BD3D-16B8EEA1670D}">
@@ -143,8 +148,35 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7BE982BE-1440-447E-8EDA-0B553E6B8B1E}</author>
+    <author>tc={B0821EA8-FB97-4542-9B55-813DA7377040}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{7BE982BE-1440-447E-8EDA-0B553E6B8B1E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Compact form for http://www.neii.gov.au/def/voc/ACLUMP/australian-land-use-and-management-classification/Marsh-or-wetlandsaline</t>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{B0821EA8-FB97-4542-9B55-813DA7377040}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Compact form for https://global-ecosystems.org/explore/groups/MFT1.3</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="227">
   <si>
     <t>subject_id</t>
   </si>
@@ -230,58 +262,608 @@
     <t>Piers Dunstan</t>
   </si>
   <si>
-    <t>URI denoting the source concept</t>
-  </si>
-  <si>
-    <t>URI denoting the mapping relationship</t>
-  </si>
-  <si>
-    <t>URI denoting the target concept</t>
-  </si>
-  <si>
-    <t>URI denoting the mapping method or justification</t>
-  </si>
-  <si>
-    <t>ORCID for the person responsible for this step</t>
-  </si>
-  <si>
-    <t>Date of this step - use ISO data format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free text - unless you wish to define a set of codes or levels? </t>
-  </si>
-  <si>
-    <t>Free text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select from - 
-skos:exactMatch
-skos:closeMatch
-skos:narrowMatch - target is narrower
-skos:exactMatch - target is broader
-</t>
-  </si>
-  <si>
     <t>status:accepted</t>
   </si>
   <si>
-    <t>Select from - 
-status:draft
-status:submitted
-status:reviewed - repeat if needed
-status:accepted
-status:published
-status:withdrawn</t>
-  </si>
-  <si>
-    <t>URI for status</t>
+    <t>skos:closeMatch</t>
+  </si>
+  <si>
+    <t>skos:narrowMatch</t>
+  </si>
+  <si>
+    <t>skos:broadMatch</t>
+  </si>
+  <si>
+    <t>status:draft</t>
+  </si>
+  <si>
+    <t>IRI</t>
+  </si>
+  <si>
+    <t>skos:prefLabel</t>
+  </si>
+  <si>
+    <t>skos:definition</t>
+  </si>
+  <si>
+    <t>dc:source</t>
+  </si>
+  <si>
+    <t>skos:example</t>
+  </si>
+  <si>
+    <t>rdfs:comment</t>
+  </si>
+  <si>
+    <t>altLabel</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>A skos:prefLabel</t>
+  </si>
+  <si>
+    <t>A skos:definition</t>
+  </si>
+  <si>
+    <t>AI dc:source</t>
+  </si>
+  <si>
+    <t>A skos:example</t>
+  </si>
+  <si>
+    <t>A rdfs:comment</t>
+  </si>
+  <si>
+    <t>A skos:altLabel SPLIT=|</t>
+  </si>
+  <si>
+    <t>SC %</t>
+  </si>
+  <si>
+    <t>semapv:MappingActivity</t>
+  </si>
+  <si>
+    <t>mapping activity</t>
+  </si>
+  <si>
+    <t>A process that relates to the creation, confirmation, rejection or curation of a mapping.</t>
+  </si>
+  <si>
+    <t>Matching is a mapping activity that results in the creating of a mapping; mapping review is an activity that results in the confirmation of a mapping.</t>
+  </si>
+  <si>
+    <t>semapv:Matching</t>
+  </si>
+  <si>
+    <t>matching process</t>
+  </si>
+  <si>
+    <t>An process that results in a mapping between a subject and an object entity.</t>
+  </si>
+  <si>
+    <t>The label of a subject entity matches to an exact synonym of an object entity.</t>
+  </si>
+  <si>
+    <t>matching operation|matching task</t>
+  </si>
+  <si>
+    <t>semapv:Mapping</t>
+  </si>
+  <si>
+    <t>mapping</t>
+  </si>
+  <si>
+    <t>A triple &lt;s,p,o&gt; comprising a subject entity s, an object entity o and a mapping predicate p.</t>
+  </si>
+  <si>
+    <t>The subject entity NCI:C9305 is mapped to the object entity ICD10:C80.9 using the skos:relatedMatch mapping predicate.</t>
+  </si>
+  <si>
+    <t>semapv:LexicalMatching</t>
+  </si>
+  <si>
+    <t>lexical matching process</t>
+  </si>
+  <si>
+    <t>A matching process based on a lexical comparison between one or more syntactic features of the subject with one or more syntactic features of the object.</t>
+  </si>
+  <si>
+    <t>semapv:LogicalReasoning</t>
+  </si>
+  <si>
+    <t>logical reasoning process</t>
+  </si>
+  <si>
+    <t>A matching process based on the inferences made by a logical reasoner.</t>
+  </si>
+  <si>
+    <t>Two classes across ontologies are determined equivalent by an OWL reasoner such as ELK.</t>
+  </si>
+  <si>
+    <t>semapv:CompositeMatching</t>
+  </si>
+  <si>
+    <t>composite matching process</t>
+  </si>
+  <si>
+    <t>A matching process based on multiple, possibly intertwined, matching approaches.</t>
+  </si>
+  <si>
+    <t>An ontology matching tool determines that a subject should be mapped to an object by employing a range of techniques, including lexical, semantic and structural.</t>
+  </si>
+  <si>
+    <t>semapv:UnspecifiedMatching</t>
+  </si>
+  <si>
+    <t>unspecified matching process</t>
+  </si>
+  <si>
+    <t>A matching process based on an unspecified comparison.</t>
+  </si>
+  <si>
+    <t>A mapping between a subject and an object was established, but it is no longer clear how or why.</t>
+  </si>
+  <si>
+    <t>semapv:SemanticSimilarityThresholdMatching</t>
+  </si>
+  <si>
+    <t>semantic similarity threshold-based matching process</t>
+  </si>
+  <si>
+    <t>A matching process based on a minimum threshold of a score from a comparison based on a semantic similarity algorithm.</t>
+  </si>
+  <si>
+    <t>A match between a subject and an object entity was established because they had a Jaccard score higher than 0.8 based on the set of (common) superclasses.</t>
+  </si>
+  <si>
+    <t>semapv:LexicalSimilarityThresholdMatching</t>
+  </si>
+  <si>
+    <t>lexical similarity threshold-based matching process</t>
+  </si>
+  <si>
+    <t>A lexical matching process based on a minimum threshold of a score from a comparison based on a lexical similarity algorithm.</t>
+  </si>
+  <si>
+    <t>A match between a subject and an object was established because they had a Levenshtein score higher than 0.8.</t>
+  </si>
+  <si>
+    <t>semapv:StructuralMatching</t>
+  </si>
+  <si>
+    <t>structural matching process</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.websem.2009.11.002</t>
+  </si>
+  <si>
+    <t>A match between a subject and an object was established because of the similarity of their structural features, e.g., the number of direct property of a class.</t>
+  </si>
+  <si>
+    <t>Structural matching does not involve looking at "values" of properties.</t>
+  </si>
+  <si>
+    <t>semapv:InstanceBasedMatching</t>
+  </si>
+  <si>
+    <t>instance-based matching process</t>
+  </si>
+  <si>
+    <t>A matching process based on individual representations (or instances).</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-38721-0</t>
+  </si>
+  <si>
+    <t>A match between a subject A and an object B was established because they share the same instances.</t>
+  </si>
+  <si>
+    <t>semapv:BackgroundKnowledgeBasedMatching</t>
+  </si>
+  <si>
+    <t>background knowledge-based matching process</t>
+  </si>
+  <si>
+    <t>A matching process that exploits background knowledge from external resources, commonly referred to as background knowledge resources. This approach is also known as indirect matching, BK-based matching or context-based matching.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.websem.2018.04.001</t>
+  </si>
+  <si>
+    <t>A match between a subject A and an object B was established because they appear equivalent under consideration of externally provided background knowledge.</t>
+  </si>
+  <si>
+    <t>semapv:MappingChaining</t>
+  </si>
+  <si>
+    <t>mapping chaining-based matching process</t>
+  </si>
+  <si>
+    <t>A matching process based on the traversing of multiple mappings.</t>
+  </si>
+  <si>
+    <t>A match between a subject A and an object B was established because A was mapped to C, C was mapped to D and D was mapped to B.</t>
+  </si>
+  <si>
+    <t>semapv:MappingInversion</t>
+  </si>
+  <si>
+    <t>mapping inversion-based matching process</t>
+  </si>
+  <si>
+    <t>A matching process based on the inverting or flipping of the subject with the object of a mapping in accordance with the semantics of the mapping predicate.</t>
+  </si>
+  <si>
+    <t>https://mapping-commons.github.io/sssom/chaining_rules/</t>
+  </si>
+  <si>
+    <t>A broad match between a subject A and an object B using the skos:narrowMatch mapping relation was established because B was mapped to A using the skos:broadMatch mapping relation.</t>
+  </si>
+  <si>
+    <t>mapping flipping|semantic walk-backs|mapping inversion|mapping inverting</t>
+  </si>
+  <si>
+    <t>semapv:MappingReview</t>
+  </si>
+  <si>
+    <t>mapping review</t>
+  </si>
+  <si>
+    <t>A process that is concerned with determining if a mapping â€œcandidateâ€ (otherwise determined) is reasonable/correct.</t>
+  </si>
+  <si>
+    <t>A match between a subject A and an object B was established elsewhere, and a human reviewer determined that the mapping is true (or false) based on an independent evaluation.</t>
+  </si>
+  <si>
+    <t>manual mapping curation</t>
+  </si>
+  <si>
+    <t>An matching process that is performed by a human agent and is based on human judgement and domain knowledge.</t>
+  </si>
+  <si>
+    <t>A human curator determines that a subject should be mapped to an object by virtue of their domain expertise.</t>
+  </si>
+  <si>
+    <t>semapv:MatchingPreprocessing</t>
+  </si>
+  <si>
+    <t>matching process pre-processing</t>
+  </si>
+  <si>
+    <t>A preliminary processing of inputs prior to performing matching.</t>
+  </si>
+  <si>
+    <t>semapv:Stemming</t>
+  </si>
+  <si>
+    <t>stemming</t>
+  </si>
+  <si>
+    <t>The process of reducing a word to its word stem.</t>
+  </si>
+  <si>
+    <t>semapv:Normalization</t>
+  </si>
+  <si>
+    <t>semapv:Lemmatization</t>
+  </si>
+  <si>
+    <t>lemmatization</t>
+  </si>
+  <si>
+    <t>The process of reducing the different forms of a word to one single form.</t>
+  </si>
+  <si>
+    <t>semapv:StopWordRemoval</t>
+  </si>
+  <si>
+    <t>stop-word removal</t>
+  </si>
+  <si>
+    <t>A preprocessing method transforming a string by removing a list of stop words.</t>
+  </si>
+  <si>
+    <t>The stop-words â€œof, and, is, aâ€ are removed from the label field of the subject entity in the mapping.</t>
+  </si>
+  <si>
+    <t>semapv:RegexRemoval</t>
+  </si>
+  <si>
+    <t>regex removal</t>
+  </si>
+  <si>
+    <t>A preprocessing method transforming a string by matching a regular expression and then removing that match.</t>
+  </si>
+  <si>
+    <t>The regex match â€œ[ -]phenotypeâ€ is removed from the label field of the subject entity in the mapping.</t>
+  </si>
+  <si>
+    <t>semapv:RegexReplacement</t>
+  </si>
+  <si>
+    <t>regex replacement</t>
+  </si>
+  <si>
+    <t>A preprocessing method transforming a string by matching a regular expression and then replacing that match with a specified substitution string.</t>
+  </si>
+  <si>
+    <t>The regex match â€œ[ -]phenotypeâ€ is replaced by â€œ-diseaseâ€ for the label field of the subject entity in the mapping.</t>
+  </si>
+  <si>
+    <t>semapv:MatchingPostProcessing</t>
+  </si>
+  <si>
+    <t>matching process post-processing</t>
+  </si>
+  <si>
+    <t>A process applied to a set of mappings, usually with the intention of changing it.</t>
+  </si>
+  <si>
+    <t>semapv:ThresholdFiltering</t>
+  </si>
+  <si>
+    <t>threshold filtering</t>
+  </si>
+  <si>
+    <t>semapv:StableMarriageFiltering</t>
+  </si>
+  <si>
+    <t>stable marriage filtering</t>
+  </si>
+  <si>
+    <t>semapv:CardinalityFiltering</t>
+  </si>
+  <si>
+    <t>cardinality filtering</t>
+  </si>
+  <si>
+    <t>semapv:LogicalConsistencyFiltering</t>
+  </si>
+  <si>
+    <t>logical consistency filtering</t>
+  </si>
+  <si>
+    <t>normalization</t>
+  </si>
+  <si>
+    <t>A family of preprocessing techniques for reducing strings to be compared to a common format.</t>
+  </si>
+  <si>
+    <t>semapv:CaseNormalization</t>
+  </si>
+  <si>
+    <t>case normalization</t>
+  </si>
+  <si>
+    <t>A normalization technique converting each alphabetic character in a string to their lower case counterpart.</t>
+  </si>
+  <si>
+    <t>The string 'Ontology' is normalised to 'ontology' (lower case).</t>
+  </si>
+  <si>
+    <t>semapv:DiacriticsSuppression</t>
+  </si>
+  <si>
+    <t>diacritics suppression</t>
+  </si>
+  <si>
+    <t>A normalization technique replacing diactritic signs (e.g. accents, hats) with their most frequent replacements.</t>
+  </si>
+  <si>
+    <t>The string 'ProtÃ©gÃ©' is normalised to 'Protege'.</t>
+  </si>
+  <si>
+    <t>semapv:BlankNormalisation</t>
+  </si>
+  <si>
+    <t>blank normalisation</t>
+  </si>
+  <si>
+    <t>A normalization technique replacing all blank characters, such as space, tabulation, carriage return (or sequences of these) into a single blank character.</t>
+  </si>
+  <si>
+    <t>The string 'ontology  matching' (two spaces between 'ontology' and 'matching) becomes 'ontology matching' (one space).</t>
+  </si>
+  <si>
+    <t>semapv:LinkStripping</t>
+  </si>
+  <si>
+    <t>link stripping</t>
+  </si>
+  <si>
+    <t>A normalization technique replacing specific links between words, such as apostrophes, dashes, underscore, etc into dashes or blanks.</t>
+  </si>
+  <si>
+    <t>The string 'alzheimer's' becomes 'alzheimers'.</t>
+  </si>
+  <si>
+    <t>semapv:DigitSuppression</t>
+  </si>
+  <si>
+    <t>digit suppression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A normalization technique removing all numbers in a string. </t>
+  </si>
+  <si>
+    <t>The string 'ontology1' becomes 'ontology'.</t>
+  </si>
+  <si>
+    <t>semapv:PunctuationElemination</t>
+  </si>
+  <si>
+    <t>punctuation elimination</t>
+  </si>
+  <si>
+    <t>A normalization technique removing all punctation characters from a string.</t>
+  </si>
+  <si>
+    <t>The string 'e.g.' becomes 'eg'.</t>
+  </si>
+  <si>
+    <t>semapv:SimilarityMeasure</t>
+  </si>
+  <si>
+    <t>similarity measure</t>
+  </si>
+  <si>
+    <t>A technique for determining a score that characterises the similarity between two entities.</t>
+  </si>
+  <si>
+    <t>semapv:StringBasedSimilarityMeasure</t>
+  </si>
+  <si>
+    <t>string-based similarity measure</t>
+  </si>
+  <si>
+    <t>A similarity measure based on the comparison of strings.</t>
+  </si>
+  <si>
+    <t>semapv:StringEquality</t>
+  </si>
+  <si>
+    <t>string equality</t>
+  </si>
+  <si>
+    <t>A string-based similarity measure which involves determining if two strings associated with mapping entities are equal.</t>
+  </si>
+  <si>
+    <t>semapv:HammingDistance</t>
+  </si>
+  <si>
+    <t>hamming distance</t>
+  </si>
+  <si>
+    <t>semapv:SubstringTest</t>
+  </si>
+  <si>
+    <t>substring test</t>
+  </si>
+  <si>
+    <t>semapv:SubstringSimilarity</t>
+  </si>
+  <si>
+    <t>substring similarity</t>
+  </si>
+  <si>
+    <t>semapv:nGramSimilarity</t>
+  </si>
+  <si>
+    <t>ngram similarity</t>
+  </si>
+  <si>
+    <t>semapv:EditDistance</t>
+  </si>
+  <si>
+    <t>edit distance</t>
+  </si>
+  <si>
+    <t>semapv:LevenshteinEditDistance</t>
+  </si>
+  <si>
+    <t>levenshtein distance</t>
+  </si>
+  <si>
+    <t>semapv:TokenBasedDistance</t>
+  </si>
+  <si>
+    <t>token-based distance</t>
+  </si>
+  <si>
+    <t>semapv:LanguageBasedSimilarityMeasure</t>
+  </si>
+  <si>
+    <t>language-based similarity measure</t>
+  </si>
+  <si>
+    <t>semapv:Tokenization</t>
+  </si>
+  <si>
+    <t>tokenization</t>
+  </si>
+  <si>
+    <t>semapv:TermExtraction</t>
+  </si>
+  <si>
+    <t>term extraction</t>
+  </si>
+  <si>
+    <t>named entity recognition</t>
+  </si>
+  <si>
+    <t>creator_id: https://orcid.org/0000-0002-3884-3420</t>
+  </si>
+  <si>
+    <t>curie_map:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   semapv: https://w3id.org/semapv/vocab/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   skos: http://www.w3.org/2004/02/skos/core#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   orcid: https://orcid.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   status: https://w3id.org/sssom/status/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   get: https://global-ecosystems.org/explore/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   alum8: http://www.neii.gov.au/def/voc/ACLUMP/australian-land-use-and-management-classification/</t>
+  </si>
+  <si>
+    <t>license: https://creativecommons.org/publicdomain/zero/1.0/</t>
+  </si>
+  <si>
+    <t>mapping_set_id: http://w3id.org/env/crosswalk/alum2get/2024-01-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   sourceprefix: https://one.example.org/classification/system1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   targetprefix: https://two.example.org/classification/system2/</t>
+  </si>
+  <si>
+    <t>mapping_set_id: http://three.example.org/neap/crosswalk/one2two/2024-01-24</t>
+  </si>
+  <si>
+    <t>creator_id: https://orcid.org/0000-0000-0000-0000</t>
+  </si>
+  <si>
+    <t>alum8:Irrigated-hardwood-plantation-forestry</t>
+  </si>
+  <si>
+    <t>Irrigated hardwood plantation forestry</t>
+  </si>
+  <si>
+    <t>get:groups/T7.3</t>
+  </si>
+  <si>
+    <t>Plantations</t>
+  </si>
+  <si>
+    <t>orcid:0000-0002-6913-1258</t>
+  </si>
+  <si>
+    <t>Glenn Newnham</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +882,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -329,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -338,6 +926,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,7 +1303,7 @@
     <text>Date of this step - use ISO data format</text>
   </threadedComment>
   <threadedComment ref="J1" dT="2024-01-24T01:17:10.81" personId="{B9FB9B10-13AA-429E-983E-2B085B82B9B0}" id="{70D8B263-AF1C-4FDB-99E1-F0257B572B51}">
-    <text xml:space="preserve">Free text - unless you wish to define a set of codes or levels? </text>
+    <text xml:space="preserve">Free text - unless the project wishes to define a set of codes or levels? </text>
   </threadedComment>
   <threadedComment ref="K1" dT="2024-01-24T01:17:19.42" personId="{B9FB9B10-13AA-429E-983E-2B085B82B9B0}" id="{A5D2FF29-DF7B-4417-BD3D-16B8EEA1670D}">
     <text>Free text</text>
@@ -733,248 +1323,36 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA42FDB6-D150-40A8-8A7A-07EE71241144}">
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="41.7109375" customWidth="1"/>
-    <col min="12" max="12" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45261</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45294</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2">
-        <v>45301</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2">
-        <v>45304</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2024-01-24T01:45:02.43" personId="{B9FB9B10-13AA-429E-983E-2B085B82B9B0}" id="{7BE982BE-1440-447E-8EDA-0B553E6B8B1E}">
+    <text>Compact form for http://www.neii.gov.au/def/voc/ACLUMP/australian-land-use-and-management-classification/Marsh-or-wetlandsaline</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3578716039</xltc2:checksum>
+        <xltc2:hyperlink startIndex="17" length="110" url="http://www.neii.gov.au/def/voc/ACLUMP/australian-land-use-and-management-classification/Marsh-or-wetlandsaline"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="D2" dT="2024-01-24T01:45:42.88" personId="{B9FB9B10-13AA-429E-983E-2B085B82B9B0}" id="{B0821EA8-FB97-4542-9B55-813DA7377040}">
+    <text>Compact form for https://global-ecosystems.org/explore/groups/MFT1.3</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>2905482864</xltc2:checksum>
+        <xltc2:hyperlink startIndex="17" length="51" url="https://global-ecosystems.org/explore/groups/MFT1.3"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+</ThreadedComments>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A7C4E4-783A-4F29-A8C4-C75B03DD1963}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,5 +1412,1442 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" promptTitle="predicates" prompt="Select mapping predicate" xr:uid="{B242DDBD-390B-4491-9671-2CBFE699378F}">
+          <x14:formula1>
+            <xm:f>predicate_id!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="status" prompt="Select status" xr:uid="{0B8FCD09-1CF0-4EF6-BE6A-97229817FE97}">
+          <x14:formula1>
+            <xm:f>status!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="justification" prompt="Select justification" xr:uid="{36F227D6-6578-456F-B244-4DAC67D24151}">
+          <x14:formula1>
+            <xm:f>justification!$A$3:$A$49</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAACB4D-58E5-4DBA-B465-4D3098E5C8AD}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA42FDB6-D150-40A8-8A7A-07EE71241144}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="41.7109375" customWidth="1"/>
+    <col min="12" max="12" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45261</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45294</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45301</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45304</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45261</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45263</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45273</v>
+      </c>
+      <c r="K8" t="s">
+        <v>226</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2">
+        <v>45305</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" promptTitle="predicates" prompt="Select mapping predicate" xr:uid="{9D1FD318-0851-4B13-A83B-32C9DD329EA9}">
+          <x14:formula1>
+            <xm:f>predicate_id!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C5 C7:C20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="justification" prompt="Select justification" xr:uid="{6E88711F-AEEC-4E1D-8C1E-08C4661482F8}">
+          <x14:formula1>
+            <xm:f>justification!$A$3:$A$49</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="status" prompt="Select status" xr:uid="{2407A8FB-CDCA-4EDD-9774-653F86F88E7F}">
+          <x14:formula1>
+            <xm:f>status!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2293BD-1F16-4B7C-9AFD-82E79329438B}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="104.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E30729-B883-4977-BF99-5B48A44F48C2}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858F67D3-E433-4504-A92A-4AAB7DEB3195}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441A2E52-8546-4786-A1BE-7FFC67B91F3B}">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="H35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s">
+        <v>175</v>
+      </c>
+      <c r="H36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/crosswalks/templates/classifier-crosswalk-sssom-template.xlsx
+++ b/crosswalks/templates/classifier-crosswalk-sssom-template.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ecosystem-typology\crosswalks\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0990EFB-7B57-40B6-88F3-E25A8505C84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F12595-6C61-4FA7-958D-DE709A653CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3660" windowWidth="38310" windowHeight="14295" activeTab="2" xr2:uid="{00E2F0C7-36F4-48CD-AB7C-87DDD7B41E94}"/>
+    <workbookView xWindow="8970" yWindow="3090" windowWidth="26955" windowHeight="14295" activeTab="4" xr2:uid="{00E2F0C7-36F4-48CD-AB7C-87DDD7B41E94}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="justification" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -176,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="230">
   <si>
     <t>subject_id</t>
   </si>
@@ -857,13 +856,22 @@
   </si>
   <si>
     <t>Good</t>
+  </si>
+  <si>
+    <t>skos:relatedMatch</t>
+  </si>
+  <si>
+    <t>skos:mappingRelation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use this when the target of the mapping is 'owl:Nothing' </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,12 +884,6 @@
       <sz val="9"/>
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -926,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1348,27 +1350,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A7C4E4-783A-4F29-A8C4-C75B03DD1963}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="41.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1417,7 +1420,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" promptTitle="predicates" prompt="Select mapping predicate" xr:uid="{B242DDBD-390B-4491-9671-2CBFE699378F}">
           <x14:formula1>
-            <xm:f>predicate_id!$A$1:$A$4</xm:f>
+            <xm:f>predicate_id!$A$1:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -1441,13 +1444,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAACB4D-58E5-4DBA-B465-4D3098E5C8AD}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1507,28 +1513,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA42FDB6-D150-40A8-8A7A-07EE71241144}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="41.7109375" customWidth="1"/>
-    <col min="12" max="12" width="36" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1866,15 +1873,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2293BD-1F16-4B7C-9AFD-82E79329438B}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="104.140625" customWidth="1"/>
+    <col min="1" max="1" width="95.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1929,37 +1937,55 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E30729-B883-4977-BF99-5B48A44F48C2}">
-  <dimension ref="A1:A4"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -1969,10 +1995,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858F67D3-E433-4504-A92A-4AAB7DEB3195}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,21 +2036,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441A2E52-8546-4786-A1BE-7FFC67B91F3B}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="218.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="172" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/crosswalks/templates/classifier-crosswalk-sssom-template.xlsx
+++ b/crosswalks/templates/classifier-crosswalk-sssom-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ecosystem-typology\crosswalks\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F12595-6C61-4FA7-958D-DE709A653CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0105FA6-88A1-437E-8BFF-41BDB56D4C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8970" yWindow="3090" windowWidth="26955" windowHeight="14295" activeTab="4" xr2:uid="{00E2F0C7-36F4-48CD-AB7C-87DDD7B41E94}"/>
   </bookViews>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="233">
   <si>
     <t>subject_id</t>
   </si>
@@ -865,6 +865,15 @@
   </si>
   <si>
     <t xml:space="preserve">Use this when the target of the mapping is 'owl:Nothing' </t>
+  </si>
+  <si>
+    <t>The mapping target is a subset of the source</t>
+  </si>
+  <si>
+    <t>The mapping target is a superset including the source</t>
+  </si>
+  <si>
+    <t>Unspecified relationship</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1956,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,15 +1978,24 @@
       <c r="A3" t="s">
         <v>30</v>
       </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/crosswalks/templates/classifier-crosswalk-sssom-template.xlsx
+++ b/crosswalks/templates/classifier-crosswalk-sssom-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ecosystem-typology\crosswalks\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0105FA6-88A1-437E-8BFF-41BDB56D4C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2CEF11-C2A0-42A0-A1D5-49874D63D420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8970" yWindow="3090" windowWidth="26955" windowHeight="14295" activeTab="4" xr2:uid="{00E2F0C7-36F4-48CD-AB7C-87DDD7B41E94}"/>
+    <workbookView xWindow="8970" yWindow="3090" windowWidth="26955" windowHeight="14295" activeTab="1" xr2:uid="{00E2F0C7-36F4-48CD-AB7C-87DDD7B41E94}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="238">
   <si>
     <t>subject_id</t>
   </si>
@@ -874,6 +874,21 @@
   </si>
   <si>
     <t>Unspecified relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rdfs: http://www.w3.org/2000/01/rdf-schema#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   owl: http://www.w3.org/2002/07/owl#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   xsd: http://www.w3.org/2001/XMLSchema#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   dcterms: http://purl.org/dc/terms/</t>
   </si>
 </sst>
 </file>
@@ -1454,10 +1469,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAACB4D-58E5-4DBA-B465-4D3098E5C8AD}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,11 +1522,36 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>218</v>
       </c>
     </row>
@@ -1955,7 +1995,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
